--- a/Test Data/TC_65166_Verify_Trip_Current_Calculation_For_FIM_Loop_FC.xlsx
+++ b/Test Data/TC_65166_Verify_Trip_Current_Calculation_For_FIM_Loop_FC.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B141A121-4B47-4419-B569-82F2DA07A1D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1267E678-CC4A-4CC7-86D6-0110DE578322}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Add Devices Loop A" sheetId="6" r:id="rId1"/>
-    <sheet name="Add_Devices_LoopB_PFI" sheetId="8" r:id="rId2"/>
-    <sheet name="Add_Devices_LoopB_FIM" sheetId="10" r:id="rId3"/>
+    <sheet name="Add_Devices_LoopA" sheetId="6" r:id="rId1"/>
+    <sheet name="Add_Devices_LoopB" sheetId="10" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="43">
   <si>
     <t>Device</t>
   </si>
@@ -74,9 +73,6 @@
     <t>Base Property Index</t>
   </si>
   <si>
-    <t>850 PH</t>
-  </si>
-  <si>
     <t>Default Flash rate</t>
   </si>
   <si>
@@ -107,69 +103,18 @@
     <t>DC Units on UI after adding device and Base</t>
   </si>
   <si>
-    <t>Ancillary</t>
-  </si>
-  <si>
-    <t>DC Units on UI for removing base of QIO 850</t>
-  </si>
-  <si>
-    <t>Isolator Jumper On</t>
-  </si>
-  <si>
-    <t>DC Units on UI for changing base of 850PH</t>
-  </si>
-  <si>
-    <t>QIO 850 (2 point)</t>
-  </si>
-  <si>
-    <t>LPAV 3000</t>
-  </si>
-  <si>
     <t>Sounders/Beacons</t>
   </si>
   <si>
-    <t>LPAV 3000 - 129</t>
-  </si>
-  <si>
-    <t>QIO 850 (2... - 127</t>
-  </si>
-  <si>
-    <t>850 PH - 126</t>
-  </si>
-  <si>
-    <t>DC Units on UI after adding devices to Loop A</t>
-  </si>
-  <si>
     <t>DC Units on UI after adding devices to Loop B</t>
   </si>
   <si>
     <t>DC Units on UI for removing base</t>
   </si>
   <si>
-    <t>850 PH - 1</t>
-  </si>
-  <si>
-    <t>LPAV 3000 - 4</t>
-  </si>
-  <si>
-    <t>QIO 850 (2 p... - 2</t>
-  </si>
-  <si>
     <t>Verify Trip current with changing base of devices</t>
   </si>
   <si>
-    <t>verifyTripCurrentWithMultipleBase,verifyTripCurrentWithMultipleLoop</t>
-  </si>
-  <si>
-    <t>NGC-1399</t>
-  </si>
-  <si>
-    <t>verifyTripCurrentWithMultipleLoop</t>
-  </si>
-  <si>
-    <t>NGC-1400</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -185,16 +130,37 @@
     <t>420CP-I - 2</t>
   </si>
   <si>
+    <t>460PC - 2</t>
+  </si>
+  <si>
+    <t>4BI 4" [517.050.043]</t>
+  </si>
+  <si>
+    <t>460PH</t>
+  </si>
+  <si>
+    <t>460PH - 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC Units on UI for changing base </t>
+  </si>
+  <si>
+    <t>420CP-I - 1</t>
+  </si>
+  <si>
+    <t>410LPSY - R/W - 1</t>
+  </si>
+  <si>
+    <t>DC Units on UI for changing base  in Loop B</t>
+  </si>
+  <si>
+    <t>DC Units on UI of Loop A after removing base in Loop B</t>
+  </si>
+  <si>
+    <t>DC Units on UI after removing base in Loop B</t>
+  </si>
+  <si>
     <t>410LPSY - R/W</t>
-  </si>
-  <si>
-    <t>410LPSY - R/W - 3</t>
-  </si>
-  <si>
-    <t>460PC - 2</t>
-  </si>
-  <si>
-    <t>4BI 4" [517.050.043]</t>
   </si>
 </sst>
 </file>
@@ -284,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -309,7 +275,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -598,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,64 +585,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
       <c r="F1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G1" s="5">
-        <v>318.72000000000003</v>
+        <v>299.32</v>
       </c>
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="16"/>
+      <c r="D2" s="17"/>
       <c r="F2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="5">
-        <v>338.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>339.72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>41</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B3" s="12"/>
       <c r="C3" s="1"/>
       <c r="D3" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1">
-        <v>5</v>
+      <c r="G3" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="7"/>
       <c r="D4" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>9</v>
@@ -685,13 +652,13 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="5"/>
       <c r="D5" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G5" s="5">
-        <v>378.9</v>
+        <v>339.72</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -705,10 +672,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>4</v>
@@ -720,7 +687,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>12</v>
@@ -728,13 +695,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>6</v>
@@ -749,7 +716,7 @@
         <v>6</v>
       </c>
       <c r="H8" s="9">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>6</v>
@@ -760,13 +727,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>6</v>
@@ -781,10 +748,10 @@
         <v>6</v>
       </c>
       <c r="H9" s="9">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J9" s="8">
         <v>13</v>
@@ -792,13 +759,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>6</v>
@@ -813,13 +780,13 @@
         <v>6</v>
       </c>
       <c r="H10" s="10">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>6</v>
+      <c r="J10" s="8">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -833,243 +800,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.77734375" customWidth="1"/>
-    <col min="4" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="38.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="10" width="54.44140625" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="F1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="F2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="5">
-        <v>449.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="5">
-        <v>449.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="5"/>
-      <c r="D5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="9">
-        <v>1</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1085,67 +820,61 @@
     <col min="11" max="11" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="F1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>45</v>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="F1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="5">
+        <v>339.72</v>
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="5">
+        <v>318.60000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="F2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="5">
-        <v>370.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>43</v>
-      </c>
+      <c r="B3" s="12"/>
       <c r="C3" s="1"/>
       <c r="D3" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G3" s="5">
-        <v>354.6</v>
+        <v>318.60000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>44</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B4" s="13"/>
       <c r="C4" s="7"/>
       <c r="D4" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="1"/>
@@ -1153,10 +882,14 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="5"/>
       <c r="D5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="5">
+        <v>359</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -1169,10 +902,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>4</v>
@@ -1184,7 +917,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>12</v>
@@ -1192,13 +925,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>6</v>
@@ -1213,7 +946,7 @@
         <v>6</v>
       </c>
       <c r="H8" s="9">
-        <v>1</v>
+        <v>32.4</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>6</v>
@@ -1224,13 +957,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>6</v>
@@ -1245,24 +978,24 @@
         <v>6</v>
       </c>
       <c r="H9" s="9">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="8">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>6</v>
@@ -1277,13 +1010,13 @@
         <v>6</v>
       </c>
       <c r="H10" s="10">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>6</v>
+        <v>33</v>
+      </c>
+      <c r="J10" s="8">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/TC_65166_Verify_Trip_Current_Calculation_For_FIM_Loop_FC.xlsx
+++ b/Test Data/TC_65166_Verify_Trip_Current_Calculation_For_FIM_Loop_FC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1267E678-CC4A-4CC7-86D6-0110DE578322}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1F8634-C6C7-4B72-A606-2367D71B5E18}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="46">
   <si>
     <t>Device</t>
   </si>
@@ -161,6 +161,15 @@
   </si>
   <si>
     <t>410LPSY - R/W</t>
+  </si>
+  <si>
+    <t>DC Unit Loading Details Name</t>
+  </si>
+  <si>
+    <t>Current (DC Units)</t>
+  </si>
+  <si>
+    <t>Current (worst case)</t>
   </si>
 </sst>
 </file>
@@ -568,7 +577,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E1" sqref="E1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,6 +600,9 @@
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
+      <c r="E1" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="F1" s="3" t="s">
         <v>22</v>
       </c>
@@ -610,6 +622,9 @@
         <v>10</v>
       </c>
       <c r="D2" s="17"/>
+      <c r="E2" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="F2" s="3" t="s">
         <v>25</v>
       </c>
@@ -625,6 +640,9 @@
       <c r="C3" s="1"/>
       <c r="D3" s="12" t="s">
         <v>18</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>3</v>
@@ -804,7 +822,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E1" sqref="E1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -827,6 +845,9 @@
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
+      <c r="E1" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="F1" s="15" t="s">
         <v>40</v>
       </c>
@@ -844,6 +865,9 @@
         <v>10</v>
       </c>
       <c r="D2" s="17"/>
+      <c r="E2" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="F2" s="3" t="s">
         <v>24</v>
       </c>
@@ -859,6 +883,9 @@
       <c r="C3" s="1"/>
       <c r="D3" s="12" t="s">
         <v>18</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>41</v>

--- a/Test Data/TC_65166_Verify_Trip_Current_Calculation_For_FIM_Loop_FC.xlsx
+++ b/Test Data/TC_65166_Verify_Trip_Current_Calculation_For_FIM_Loop_FC.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1F8634-C6C7-4B72-A606-2367D71B5E18}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add_Devices_LoopA" sheetId="6" r:id="rId1"/>
     <sheet name="Add_Devices_LoopB" sheetId="10" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -112,9 +111,6 @@
     <t>DC Units on UI for removing base</t>
   </si>
   <si>
-    <t>Verify Trip current with changing base of devices</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -170,12 +166,15 @@
   </si>
   <si>
     <t>Current (worst case)</t>
+  </si>
+  <si>
+    <t>verifyTripCurrentCalculationForFIMLoopFC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -573,11 +572,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,7 +600,7 @@
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
       <c r="E1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>22</v>
@@ -616,14 +615,14 @@
         <v>16</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>25</v>
@@ -642,13 +641,13 @@
         <v>18</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -673,7 +672,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" s="5">
         <v>339.72</v>
@@ -713,13 +712,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="C8" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>6</v>
@@ -745,13 +744,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>6</v>
@@ -769,21 +768,21 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J9" s="8">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>6</v>
@@ -804,7 +803,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="8">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -818,11 +817,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -846,10 +845,10 @@
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
       <c r="E1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G1" s="5">
         <v>339.72</v>
@@ -866,7 +865,7 @@
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>24</v>
@@ -885,10 +884,10 @@
         <v>18</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="5">
         <v>318.60000000000002</v>
@@ -912,7 +911,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="5">
         <v>359</v>
@@ -952,13 +951,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>6</v>
@@ -984,13 +983,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>6</v>
@@ -1016,13 +1015,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>6</v>
@@ -1040,10 +1039,10 @@
         <v>1</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J10" s="8">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/TC_65166_Verify_Trip_Current_Calculation_For_FIM_Loop_FC.xlsx
+++ b/Test Data/TC_65166_Verify_Trip_Current_Calculation_For_FIM_Loop_FC.xlsx
@@ -30,8 +30,76 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Alpesh Dhakad</author>
+  </authors>
+  <commentList>
+    <comment ref="I9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alpesh Dhakad:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+4BI 4" [517.050.043]</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Alpesh Dhakad</author>
+  </authors>
+  <commentList>
+    <comment ref="I10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alpesh Dhakad:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+4BI 4" [517.050.043]</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="46">
   <si>
     <t>Device</t>
   </si>
@@ -129,9 +197,6 @@
     <t>460PC - 2</t>
   </si>
   <si>
-    <t>4BI 4" [517.050.043]</t>
-  </si>
-  <si>
     <t>460PH</t>
   </si>
   <si>
@@ -169,13 +234,16 @@
   </si>
   <si>
     <t>verifyTripCurrentCalculationForFIMLoopFC</t>
+  </si>
+  <si>
+    <t>Assign Base/Default Base Row</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +265,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -572,11 +653,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,7 +681,7 @@
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
       <c r="E1" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>22</v>
@@ -615,14 +696,14 @@
         <v>16</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>25</v>
@@ -641,7 +722,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>3</v>
@@ -672,7 +753,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="5">
         <v>339.72</v>
@@ -704,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>12</v>
@@ -718,7 +799,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>6</v>
@@ -767,8 +848,8 @@
       <c r="H9" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>32</v>
+      <c r="I9" s="8">
+        <v>4</v>
       </c>
       <c r="J9" s="8">
         <v>6</v>
@@ -776,13 +857,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>6</v>
@@ -813,15 +894,16 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -845,10 +927,10 @@
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
       <c r="E1" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G1" s="5">
         <v>339.72</v>
@@ -865,7 +947,7 @@
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>24</v>
@@ -884,10 +966,10 @@
         <v>18</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="5">
         <v>318.60000000000002</v>
@@ -911,7 +993,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="5">
         <v>359</v>
@@ -951,13 +1033,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>6</v>
@@ -1015,13 +1097,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>6</v>
@@ -1038,8 +1120,8 @@
       <c r="H10" s="10">
         <v>1</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>32</v>
+      <c r="I10" s="8">
+        <v>4</v>
       </c>
       <c r="J10" s="8">
         <v>6</v>
@@ -1052,5 +1134,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Test Data/TC_65166_Verify_Trip_Current_Calculation_For_FIM_Loop_FC.xlsx
+++ b/Test Data/TC_65166_Verify_Trip_Current_Calculation_For_FIM_Loop_FC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FE9586-5E1E-4122-992E-8425DEB6001C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add_Devices_LoopA" sheetId="6" r:id="rId1"/>
@@ -20,23 +21,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Alpesh Dhakad</author>
   </authors>
   <commentList>
-    <comment ref="I9" authorId="0" shapeId="0">
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -65,12 +60,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Alpesh Dhakad</author>
   </authors>
   <commentList>
-    <comment ref="I10" authorId="0" shapeId="0">
+    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="53">
   <si>
     <t>Device</t>
   </si>
@@ -237,12 +232,33 @@
   </si>
   <si>
     <t>Assign Base/Default Base Row</t>
+  </si>
+  <si>
+    <t>Loop</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Built-in Loop-A</t>
+  </si>
+  <si>
+    <t>Built-in Loop-B</t>
+  </si>
+  <si>
+    <t>Built-in Loop-C</t>
+  </si>
+  <si>
+    <t>Built-in Loop-D</t>
+  </si>
+  <si>
+    <t>NGC-1826/T920 OR TC-65166</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -344,9 +360,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -374,6 +387,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,11 +667,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,70 +688,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="6" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="5">
-        <v>299.32</v>
-      </c>
-      <c r="H1" s="4"/>
+      <c r="G1" s="4">
+        <v>300</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="5">
-        <v>339.72</v>
+      <c r="G2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="12">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>26</v>
       </c>
+      <c r="H3" s="12" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="12" t="s">
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -746,144 +776,150 @@
       <c r="G4" s="1">
         <v>220</v>
       </c>
+      <c r="H4" s="12" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="5"/>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="5">
-        <v>339.72</v>
+      <c r="G5" s="4">
+        <v>340</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="9">
+      <c r="D8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="8">
         <v>1.2</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="8" t="s">
+      <c r="I8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="9">
+      <c r="D9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>4</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="10">
+      <c r="D10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="9">
         <v>1</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="8">
+      <c r="I10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="7">
         <v>6</v>
       </c>
     </row>
@@ -899,11 +935,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -920,210 +956,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="6" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="5">
-        <v>339.72</v>
-      </c>
-      <c r="H1" s="4"/>
+      <c r="G1" s="4">
+        <v>340</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="5">
-        <v>318.60000000000002</v>
+      <c r="G2" s="4">
+        <v>319</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="12">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="5">
-        <v>318.60000000000002</v>
+      <c r="G3" s="4">
+        <v>343</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="12" t="s">
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="1"/>
+      <c r="H4" s="12" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="5"/>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="5">
-        <v>359</v>
+      <c r="G5" s="4">
+        <v>360</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="9">
+      <c r="D8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="8">
         <v>32.4</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="8" t="s">
+      <c r="I8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="9">
+      <c r="D9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="8">
         <v>1.2</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="8" t="s">
+      <c r="I9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="10">
+      <c r="D10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="9">
         <v>1</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>4</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <v>6</v>
       </c>
     </row>
